--- a/Swarm_Master/experiments/experiment_2024-04-13_19-15-58/Experiment_Graphs.xlsx
+++ b/Swarm_Master/experiments/experiment_2024-04-13_19-15-58/Experiment_Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharp\Swarm_Modeling\Swarm_Master\experiments\experiment_2024-04-13_19-15-58\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD8B96-07C9-4097-AF21-492462F1DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10797C9C-DEB5-432E-AA10-57563A13DF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28AA4983-DCC7-4159-84B8-3710D3F3C8B8}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time On Target</a:t>
+              <a:t>Total Time On Target</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2704,6 +2704,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4357,6 +4412,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy Remaining</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5056,6 +5166,859 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1192547360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>10.2960000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4163265306122499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9437500000006001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.33913043478245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7444444444451292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6659090909090302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2418604651161003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2047619047617104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.192682926831701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8349999999998303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5897435897433301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.184210526317401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.413513513513999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3277777777777597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.414285714287001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.485294117649399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.709090909092598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0874999999996895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6870967741934702</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.6299999999998995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.7862068965518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.1964285714286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.084615384618601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.204000000005202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.033333333333402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.643478260870101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4727272727272598</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.8857142857139202</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.220000000001399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6631578947365195</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.416666666672697</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.1764705882354</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5124999999997204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.426666666672602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.485714285721002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.153846153849301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.166666666667801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.427272727271799</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.7799999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.911111111110699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>63.250000000005798</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.342857142855902</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.833333333333002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.459999999999201</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.6999999999991</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.250000000000099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.400000000000102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-156C-4DDB-A8EC-D687DED12613}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$54:$I$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$54:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8.1799999999996995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.32499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9608695652172301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56363636363636205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3285714285712098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0949999999998097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1105263157892296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.6777777777816</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.48823529411764</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.843750000002501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333331403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.378571428572901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.184615384620599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4083333333331503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.2363636363631</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.479999999998999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.155555555554699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.9750000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.842857142856602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.966666666666598</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.739999999998197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.724999999999401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.3999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-156C-4DDB-A8EC-D687DED12613}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204035104"/>
+        <c:axId val="1204035584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204035104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204035584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204035584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204035104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5382,6 +6345,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7963,6 +8966,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8691,6 +10210,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>251826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>531052</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0237519C-A3B1-9DA6-E160-10B454929029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9018,8 +10573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC53BB55-0552-4D74-948C-F01BE971738F}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AE28" sqref="AE28"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9027,6 +10582,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
